--- a/Planung/Zeitplan.xlsx
+++ b/Planung/Zeitplan.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A4:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>41957</v>
+        <v>41950</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -472,7 +472,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>41971</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -480,7 +480,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>41985</v>
+        <v>41964</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,7 +488,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>41990</v>
+        <v>41971</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -496,7 +496,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>41995</v>
+        <v>41978</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="1">
-        <v>42125</v>
+        <v>42111</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -539,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="1">
-        <v>41957</v>
+        <v>41950</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1">
-        <v>41971</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -555,7 +555,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="1">
-        <v>41985</v>
+        <v>41964</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -563,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="1">
-        <v>41990</v>
+        <v>41971</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="1">
-        <v>41995</v>
+        <v>41978</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <v>42125</v>
+        <v>42111</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="1">
-        <v>41957</v>
+        <v>41950</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="1">
-        <v>41971</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="1">
-        <v>41985</v>
+        <v>41964</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="1">
-        <v>41990</v>
+        <v>41971</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="1">
-        <v>41995</v>
+        <v>41978</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="1">
-        <v>42125</v>
+        <v>42111</v>
       </c>
     </row>
   </sheetData>

--- a/Planung/Zeitplan.xlsx
+++ b/Planung/Zeitplan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Aufgabe:</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Hardware/Schnittstellen Auswahl</t>
-  </si>
-  <si>
-    <t>Pflichtenheft</t>
   </si>
   <si>
     <t>(wenn Server/Client ) Klassendesign Server</t>
@@ -428,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C35"/>
+  <dimension ref="A4:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +469,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>41957</v>
+        <v>41950</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -480,7 +477,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>41964</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,23 +485,23 @@
         <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>41971</v>
+        <v>41964</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>41978</v>
+        <v>42077</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>42077</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -512,14 +509,6 @@
         <v>21</v>
       </c>
       <c r="C12" s="1">
-        <v>42104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1">
         <v>42111</v>
       </c>
     </row>
@@ -547,7 +536,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1">
-        <v>41957</v>
+        <v>41950</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -555,31 +544,31 @@
         <v>13</v>
       </c>
       <c r="C19" s="1">
-        <v>41964</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1">
-        <v>41971</v>
+        <v>41964</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
-        <v>41978</v>
+        <v>42077</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>42077</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -587,14 +576,6 @@
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <v>42104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1">
         <v>42111</v>
       </c>
     </row>
@@ -611,7 +592,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
         <v>41950</v>
@@ -622,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="1">
-        <v>41957</v>
+        <v>41950</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,23 +611,23 @@
         <v>13</v>
       </c>
       <c r="C30" s="1">
-        <v>41964</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C31" s="1">
-        <v>41971</v>
+        <v>41964</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C32" s="1">
-        <v>41978</v>
+        <v>42077</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -654,7 +635,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="1">
-        <v>42077</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -662,14 +643,6 @@
         <v>21</v>
       </c>
       <c r="C34" s="1">
-        <v>42104</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="1">
         <v>42111</v>
       </c>
     </row>
